--- a/medicine/Enfance/Hong_Na-ri/Hong_Na-ri.xlsx
+++ b/medicine/Enfance/Hong_Na-ri/Hong_Na-ri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hong Na-ri, née à Séoul en Corée du Sud le 27 avril 1984, est une autrice-illustratrice sud-coréenne.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Hong Nari est née à Séoul en Corée du Sud, le 27 avril 1984[réf. souhaitée].
-Carrière
-Depuis son premier dessin animé en 2018, elle travaille également comme réalisatrice. Elle travaille en collaboration avec son mari, Ahn Seung Joon, qui est un compositeur[réf. souhaitée].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong Nari est née à Séoul en Corée du Sud, le 27 avril 1984[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -542,15 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2017 : Livres exceptionnels pour les enfants en état de handicap de l'Union internationale pour les livres de jeunesse (IBBY Outstanding Books for Young People with Disabilities), pour Papa, ne sois pas désolé ! (en anglais : Days with Dad ; titre original : Appa, mianhaehaji maseyo!)[1]
-2017 : Finaliste du prix de l’album de jeunesse d’Asie du festival d’Asie du contenu pour la jeunesse (The AFCC shortlist for the Asian Children’s Book Award (ACBA) by Genting Singapore), pour Papa, ne sois pas désolé ! (en anglais : Days with Dad ; titre original : Appa, mianhaehaji maseyo!)[2]
-2019 : Prix « Mention Spéciale Kiapa », Indie-AniFest (Séoul, Corée du Sud), pour Un jour, nous (en anglais : We will see someday ; original : Eoneu nal, urineun)[3]
-2020 : Finaliste du prix Peter Pan de Suède, pour Papa, ne sois pas désolé ! (en anglais : Days with Dad ; titre original : Appa, mianhaehaji maseyo!)/[4]</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis son premier dessin animé en 2018, elle travaille également comme réalisatrice. Elle travaille en collaboration avec son mari, Ahn Seung Joon, qui est un compositeur[réf. souhaitée].
+</t>
         </is>
       </c>
     </row>
@@ -575,13 +594,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2017 : Livres exceptionnels pour les enfants en état de handicap de l'Union internationale pour les livres de jeunesse (IBBY Outstanding Books for Young People with Disabilities), pour Papa, ne sois pas désolé ! (en anglais : Days with Dad ; titre original : Appa, mianhaehaji maseyo!)
+2017 : Finaliste du prix de l’album de jeunesse d’Asie du festival d’Asie du contenu pour la jeunesse (The AFCC shortlist for the Asian Children’s Book Award (ACBA) by Genting Singapore), pour Papa, ne sois pas désolé ! (en anglais : Days with Dad ; titre original : Appa, mianhaehaji maseyo!)
+2019 : Prix « Mention Spéciale Kiapa », Indie-AniFest (Séoul, Corée du Sud), pour Un jour, nous (en anglais : We will see someday ; original : Eoneu nal, urineun)
+2020 : Finaliste du prix Peter Pan de Suède, pour Papa, ne sois pas désolé ! (en anglais : Days with Dad ; titre original : Appa, mianhaehaji maseyo!)/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hong_Na-ri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hong_Na-ri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Papa, ne sois pas désolé ! (Days with Dad ; original : appa, mianhaehaji maseyo!), Hanulim Special (Corée du Sud), 2015.  (ISBN 9781592702336)
-Days with Dad, Enchanted Lion Books (États-Unis), 2017[5].  (ISBN 9781592702336)
+Days with Dad, Enchanted Lion Books (États-Unis), 2017.  (ISBN 9781592702336)
 Sei Nicht Traurig, Papa, leiv Leipziger Kinderbuchverlag GmbH (Allemagne), 2017.  (ISBN 9783896034816)
 Don’t be sorry, dad!, Epigram Books (Singapour), 2016.  (ISBN 9789814655767)
 Min pappa och jag, Kikkuli Förlag AB (Suède), 2019.  (ISBN 9789188195722)
@@ -591,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Hong_Na-ri</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hong_Na-ri</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dessins animés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2018 : We will see someday (durée : 06:30), dessin sur papier
 2021 : Adventurer’s Lullaby (durée : 04:10), dessin sur papier et IPad</t>
